--- a/public/ExcelTemplates/Incomes.xlsx
+++ b/public/ExcelTemplates/Incomes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Options Store\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Options Store\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7F1594-49D7-4902-8CB9-599FB1D7C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29840C95-109C-4586-8657-05A9A990C2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>رقم الروشتة</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve"> الاجمالي</t>
+  </si>
+  <si>
+    <t>المريض</t>
   </si>
 </sst>
 </file>
@@ -164,13 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,54 +480,59 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
     </row>
-    <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+    <row r="2" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
-    <row r="3" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.70866141732282995" right="0.70866141732282995" top="0.74803149606299002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
